--- a/dataSource/dummyData-iVolunteer.xlsx
+++ b/dataSource/dummyData-iVolunteer.xlsx
@@ -9796,6 +9796,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -9821,6 +9824,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -9846,6 +9852,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -9871,6 +9880,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -9896,6 +9908,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -9921,6 +9936,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -9946,6 +9964,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -9971,6 +9992,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -9996,6 +10020,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -10021,6 +10048,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -10046,6 +10076,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -10071,6 +10104,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -10096,6 +10132,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -10121,6 +10160,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -10146,6 +10188,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -10171,6 +10216,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -10196,6 +10244,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -10221,6 +10272,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -10246,6 +10300,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -10265,6 +10322,3309 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId360"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="361" name="Image 361" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId361"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="362" name="Image 362" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId362"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="363" name="Image 363" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId363"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="364" name="Image 364" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId364"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="365" name="Image 365" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId365"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="366" name="Image 366" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId366"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="367" name="Image 367" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId367"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="368" name="Image 368" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId368"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="369" name="Image 369" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId369"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="370" name="Image 370" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId370"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="371" name="Image 371" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId371"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="372" name="Image 372" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId372"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="373" name="Image 373" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId373"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="374" name="Image 374" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId374"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="375" name="Image 375" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId375"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="376" name="Image 376" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId376"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="377" name="Image 377" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId377"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="378" name="Image 378" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId378"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="379" name="Image 379" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId379"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="380" name="Image 380" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId380"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="381" name="Image 381" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId381"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="382" name="Image 382" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId382"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="383" name="Image 383" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId383"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="384" name="Image 384" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId384"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="385" name="Image 385" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId385"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="386" name="Image 386" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId386"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="387" name="Image 387" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId387"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="388" name="Image 388" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId388"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="389" name="Image 389" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId389"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="390" name="Image 390" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId390"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="391" name="Image 391" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId391"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="392" name="Image 392" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId392"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="393" name="Image 393" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId393"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="394" name="Image 394" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId394"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="395" name="Image 395" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId395"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="396" name="Image 396" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId396"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="397" name="Image 397" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId397"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="398" name="Image 398" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId398"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="399" name="Image 399" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId399"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="400" name="Image 400" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId400"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="401" name="Image 401" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId401"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="402" name="Image 402" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId402"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="403" name="Image 403" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId403"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="404" name="Image 404" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId404"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="405" name="Image 405" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId405"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="406" name="Image 406" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId406"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="407" name="Image 407" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId407"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="408" name="Image 408" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId408"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="409" name="Image 409" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId409"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="410" name="Image 410" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId410"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="411" name="Image 411" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId411"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="412" name="Image 412" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId412"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="413" name="Image 413" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId413"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="414" name="Image 414" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId414"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="415" name="Image 415" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId415"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="416" name="Image 416" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId416"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="417" name="Image 417" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId417"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="418" name="Image 418" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId418"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="419" name="Image 419" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId419"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="420" name="Image 420" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId420"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="421" name="Image 421" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId421"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="422" name="Image 422" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId422"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="423" name="Image 423" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId423"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="424" name="Image 424" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId424"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="425" name="Image 425" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId425"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="426" name="Image 426" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId426"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="427" name="Image 427" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId427"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="428" name="Image 428" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId428"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="429" name="Image 429" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId429"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="430" name="Image 430" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId430"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="431" name="Image 431" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId431"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="432" name="Image 432" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId432"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="433" name="Image 433" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId433"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="434" name="Image 434" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId434"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="435" name="Image 435" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId435"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="436" name="Image 436" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId436"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="437" name="Image 437" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId437"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="438" name="Image 438" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId438"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="439" name="Image 439" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId439"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="440" name="Image 440" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId440"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="441" name="Image 441" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId441"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="442" name="Image 442" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId442"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="443" name="Image 443" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId443"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="444" name="Image 444" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId444"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="445" name="Image 445" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId445"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="446" name="Image 446" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId446"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="447" name="Image 447" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId447"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="448" name="Image 448" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId448"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="449" name="Image 449" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId449"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="450" name="Image 450" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId450"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="451" name="Image 451" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId451"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="452" name="Image 452" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId452"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="453" name="Image 453" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId453"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="454" name="Image 454" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId454"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="455" name="Image 455" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId455"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="456" name="Image 456" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId456"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="457" name="Image 457" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId457"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="458" name="Image 458" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId458"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="459" name="Image 459" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId459"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="460" name="Image 460" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId460"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="461" name="Image 461" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId461"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="462" name="Image 462" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId462"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="463" name="Image 463" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId463"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="464" name="Image 464" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId464"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="465" name="Image 465" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId465"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="466" name="Image 466" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId466"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="467" name="Image 467" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId467"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="468" name="Image 468" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId468"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="469" name="Image 469" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId469"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="470" name="Image 470" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId470"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="471" name="Image 471" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId471"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="472" name="Image 472" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId472"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="473" name="Image 473" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId473"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="474" name="Image 474" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId474"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="475" name="Image 475" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId475"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="476" name="Image 476" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId476"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="477" name="Image 477" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId477"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="478" name="Image 478" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId478"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="479" name="Image 479" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId479"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="480" name="Image 480" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId480"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -10639,7 +13999,7 @@
       <c r="E3" s="5" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="G3" s="9" t="n"/>
+      <c r="G3" s="10" t="n"/>
     </row>
     <row r="4" ht="50.1" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -10735,7 +14095,7 @@
       <c r="E7" s="5" t="n">
         <v>0.2916666666666667</v>
       </c>
-      <c r="G7" s="9" t="n"/>
+      <c r="G7" s="10" t="n"/>
     </row>
     <row r="8" ht="50.1" customHeight="1">
       <c r="A8" t="inlineStr">
@@ -10783,7 +14143,7 @@
       <c r="E9" s="5" t="n">
         <v>0.375</v>
       </c>
-      <c r="G9" s="9" t="n"/>
+      <c r="G9" s="10" t="n"/>
     </row>
     <row r="10" ht="50.1" customHeight="1">
       <c r="A10" t="inlineStr">
@@ -10879,7 +14239,7 @@
       <c r="E13" s="5" t="n">
         <v>0.2916666666666667</v>
       </c>
-      <c r="G13" s="9" t="n"/>
+      <c r="G13" s="10" t="n"/>
     </row>
     <row r="14" ht="50.1" customHeight="1">
       <c r="A14" t="inlineStr">
@@ -10927,7 +14287,7 @@
       <c r="E15" s="5" t="n">
         <v>0.2916666666666667</v>
       </c>
-      <c r="G15" s="9" t="n"/>
+      <c r="G15" s="10" t="n"/>
     </row>
     <row r="16" ht="50.1" customHeight="1">
       <c r="A16" t="inlineStr">
@@ -10951,7 +14311,7 @@
       <c r="E16" s="5" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16" s="9" t="n"/>
+      <c r="G16" s="10" t="n"/>
     </row>
     <row r="17" ht="50.1" customHeight="1">
       <c r="A17" t="inlineStr">
@@ -10975,7 +14335,7 @@
       <c r="E17" s="5" t="n">
         <v>0.375</v>
       </c>
-      <c r="G17" s="9" t="n"/>
+      <c r="G17" s="10" t="n"/>
     </row>
     <row r="18" ht="50.1" customHeight="1">
       <c r="A18" t="inlineStr">
@@ -10999,7 +14359,7 @@
       <c r="E18" s="5" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G18" s="9" t="n"/>
+      <c r="G18" s="10" t="n"/>
     </row>
     <row r="19" ht="50.1" customHeight="1">
       <c r="A19" t="inlineStr">
@@ -11071,7 +14431,7 @@
       <c r="E21" s="5" t="n">
         <v>0.375</v>
       </c>
-      <c r="G21" s="9" t="n"/>
+      <c r="G21" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
